--- a/src/test/resorce/expect1.xlsx
+++ b/src/test/resorce/expect1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\env\springworkspace\sogoensyu\src\test\resorce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A7BAAB-E27F-4045-998D-97BEA802BA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8D9BEC-87FB-4A80-90A9-F021504D4A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="600" windowWidth="14232" windowHeight="12360" xr2:uid="{1A7C21F4-7003-4A1B-A8E4-05C80F861B21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A7C21F4-7003-4A1B-A8E4-05C80F861B21}"/>
   </bookViews>
   <sheets>
     <sheet name="forresister" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -50,6 +50,22 @@
   </si>
   <si>
     <t>seine.kato@rakus-partners.co.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resister_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$2a$10$57o8HGavMZY6TbfCkkU.S.5OnyPLBVW8AcuA2T4LnY.01fyagmtn6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-06-27 18:00:00.000000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -108,11 +124,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,18 +449,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8BBE985-84AF-408B-8977-51532660E610}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="29.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="68.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -449,17 +470,29 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="b">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
